--- a/src/test/resources/VideoIndexerTest.xlsx
+++ b/src/test/resources/VideoIndexerTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Eclipse_Workspace\VideoIndexer\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D83891B-4519-4861-897B-77A9960296B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046688C1-7015-474D-9DDE-B09A00FDA403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Upload_File</t>
   </si>
   <si>
-    <t>C:\\Data\\ElephantsDream.mp4</t>
-  </si>
-  <si>
     <t>FileName</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>https://www.videoindexer.ai/</t>
+  </si>
+  <si>
+    <t>C:\\Data\\Eclipse_Workspace\VideoIndexer\\src\\test\resources\\ElephantsDream.mp4</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -637,10 +637,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -657,14 +657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C2F3DA-F978-4366-A151-EF4E11C2D7D3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,15 +712,15 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +776,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -878,15 +878,15 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,34 +984,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
